--- a/shopify-input.xlsx
+++ b/shopify-input.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="11400" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="キャンセルオーダーID" sheetId="2" r:id="rId1"/>
+    <sheet name="キャンセル注文番号" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>OrderID</t>
+    <t>OrderNumber</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -400,7 +400,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -418,7 +418,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2689214939293</v>
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
